--- a/testFiles/Workbook1.xlsx
+++ b/testFiles/Workbook1.xlsx
@@ -21,16 +21,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>name1</t>
+    <t>Ryan,Breaux</t>
   </si>
   <si>
-    <t>name2</t>
+    <t>First,Last</t>
   </si>
   <si>
-    <t>name3</t>
+    <t>John</t>
   </si>
   <si>
-    <t>name4</t>
+    <t>Billy</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
